--- a/DATA_DATN/Thống kê dữ liệu sử dụng/soluongduulieu.xlsx
+++ b/DATA_DATN/Thống kê dữ liệu sử dụng/soluongduulieu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YOLOv8-Traffic-Monitoring-System-1\DATA_DATN\Thống kê dữ liệu sử dụng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A804A964-6993-4786-9882-1334C202B739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EEE9A5-DF8A-4253-9275-A690BCA1BBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,19 +263,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5718</c:v>
+                  <c:v>5570</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11045</c:v>
+                  <c:v>10741</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1821</c:v>
+                  <c:v>1770</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>507</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,7 +2208,7 @@
   <dimension ref="B4:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2236,19 +2236,19 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>5718</v>
+        <v>5570</v>
       </c>
       <c r="C5" s="1">
-        <v>11045</v>
+        <v>10741</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>1821</v>
+        <v>1770</v>
       </c>
       <c r="F5" s="1">
-        <v>507</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">

--- a/DATA_DATN/Thống kê dữ liệu sử dụng/soluongduulieu.xlsx
+++ b/DATA_DATN/Thống kê dữ liệu sử dụng/soluongduulieu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YOLOv8-Traffic-Monitoring-System-1\DATA_DATN\Thống kê dữ liệu sử dụng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YOLOv8-Traffic-Monitoring-Systems\DATA_DATN\Thống kê dữ liệu sử dụng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EEE9A5-DF8A-4253-9275-A690BCA1BBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613364C8-1A1C-4317-BA1A-316F83253FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,19 +263,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5570</c:v>
+                  <c:v>5718</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10741</c:v>
+                  <c:v>11045</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1770</c:v>
+                  <c:v>1821</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>484</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,7 +2208,7 @@
   <dimension ref="B4:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2236,19 +2236,19 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>5570</v>
+        <v>5718</v>
       </c>
       <c r="C5" s="1">
-        <v>10741</v>
+        <v>11045</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>1770</v>
+        <v>1821</v>
       </c>
       <c r="F5" s="1">
-        <v>484</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
